--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4130052.663323393</v>
+        <v>4133603.223110785</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256418</v>
+        <v>6239134.533256422</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069175</v>
+        <v>840694.9721069173</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42.13981355887269</v>
+        <v>42.13981355887223</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.889762398448</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>47.14167849255895</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>47.14167849255917</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>25.77351865445802</v>
       </c>
       <c r="H5" t="n">
-        <v>303.9983298142755</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>41.65908664969436</v>
+        <v>41.65908664969439</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>46.99863233534736</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>33.21446231455224</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>22.99033455509891</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>177.9498744325401</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212042</v>
       </c>
       <c r="H11" t="n">
         <v>295.6178616169271</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T11" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
         <v>251.0030623803221</v>
@@ -1469,7 +1469,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.9415411840808</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>179.3797450192698</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T14" t="n">
         <v>204.3497241367009</v>
@@ -1706,7 +1706,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>101.1693283758023</v>
+        <v>142.657110336981</v>
       </c>
       <c r="U16" t="n">
         <v>286.2142514133935</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>158.4928132020633</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>30.71306508143929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T20" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>85.29652924980556</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>209.5803510878619</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0700504016732</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>8.034133201285453</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>140.6497151509922</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>249.415635382088</v>
+        <v>40.25343144524575</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>91.86146014928994</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>36.50540520777758</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2142514133935</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>51.63474770054842</v>
+        <v>130.4482050673225</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710048</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0203559212063</v>
+        <v>411.0203559212045</v>
       </c>
       <c r="H35" t="n">
-        <v>295.6178616169271</v>
+        <v>295.617861616927</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>119.7401400319078</v>
       </c>
       <c r="G37" t="n">
-        <v>50.34915283654325</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>190.5400452173541</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>219.737983885652</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2142514133934</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634771</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U38" t="n">
         <v>251.0030623803221</v>
@@ -3602,7 +3602,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>56.42234815219794</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
         <v>286.2142514133935</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>112.4462570450451</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26.83369495939603</v>
+        <v>119.7401400319059</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.56858183794509</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>67.58149646158316</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4327,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,22 +4354,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="X2" t="n">
         <v>1796.25819089779</v>
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4421,22 +4421,22 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
         <v>498.8626623130036</v>
@@ -4476,64 +4476,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626212</v>
+        <v>609.3508327416152</v>
       </c>
       <c r="C5" t="n">
-        <v>785.9213106858008</v>
+        <v>240.3883158012035</v>
       </c>
       <c r="D5" t="n">
-        <v>785.9213106858008</v>
+        <v>240.3883158012035</v>
       </c>
       <c r="E5" t="n">
-        <v>785.9213106858008</v>
+        <v>240.3883158012035</v>
       </c>
       <c r="F5" t="n">
-        <v>374.9354058961932</v>
+        <v>233.4428150520001</v>
       </c>
       <c r="G5" t="n">
-        <v>361.0120018347841</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>995.950672805737</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4710,22 +4710,22 @@
         <v>141.6793917579719</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D8" t="n">
-        <v>494.1501011631125</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>108.3618485648683</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>101.4163478156648</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2663.599129084331</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2663.599129084331</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2663.599129084331</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2332.53624174076</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1979.767586470646</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1606.301828209567</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1216.162496233755</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4892,16 +4892,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
         <v>99.59950625323012</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3816362947775</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036594</v>
       </c>
       <c r="G11" t="n">
         <v>440.1593205155743</v>
       </c>
       <c r="H11" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924155</v>
       </c>
       <c r="I11" t="n">
         <v>95.71766921524075</v>
@@ -5044,16 +5044,16 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K11" t="n">
-        <v>765.1137348815562</v>
+        <v>1086.01769332701</v>
       </c>
       <c r="L11" t="n">
-        <v>1614.223600516549</v>
+        <v>1521.642956557057</v>
       </c>
       <c r="M11" t="n">
-        <v>2130.610079306233</v>
+        <v>2038.029435346741</v>
       </c>
       <c r="N11" t="n">
-        <v>2659.966039567009</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O11" t="n">
         <v>3520.693250262004</v>
@@ -5120,25 +5120,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M12" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O12" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.498588679581</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.3144713837966</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C13" t="n">
-        <v>411.3782884558896</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D13" t="n">
-        <v>411.3782884558896</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E13" t="n">
         <v>263.4651948734965</v>
@@ -5205,10 +5205,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M13" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N13" t="n">
         <v>1318.687152545534</v>
@@ -5220,31 +5220,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q13" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R13" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S13" t="n">
         <v>1720.61395783393</v>
       </c>
       <c r="T13" t="n">
-        <v>1720.61395783393</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U13" t="n">
-        <v>1720.61395783393</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V13" t="n">
-        <v>1465.929469628043</v>
+        <v>954.8666056896133</v>
       </c>
       <c r="W13" t="n">
-        <v>1176.512299591082</v>
+        <v>665.4494356526527</v>
       </c>
       <c r="X13" t="n">
-        <v>948.5227486930648</v>
+        <v>484.2577740170266</v>
       </c>
       <c r="Y13" t="n">
-        <v>727.7301695495347</v>
+        <v>263.4651948734965</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924155</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
@@ -5281,19 +5281,19 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K14" t="n">
-        <v>1086.017693327009</v>
+        <v>1086.01769332701</v>
       </c>
       <c r="L14" t="n">
-        <v>1935.127558962002</v>
+        <v>1521.642956557057</v>
       </c>
       <c r="M14" t="n">
-        <v>2451.514037751686</v>
+        <v>2038.029435346741</v>
       </c>
       <c r="N14" t="n">
-        <v>2980.869998012462</v>
+        <v>3000.358850775381</v>
       </c>
       <c r="O14" t="n">
-        <v>3730.88509101531</v>
+        <v>3863.871591484531</v>
       </c>
       <c r="P14" t="n">
         <v>4430.198854229707</v>
@@ -5357,25 +5357,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>258.3150913629237</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111803</v>
+        <v>414.286932541866</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433815</v>
+        <v>769.6414721740674</v>
       </c>
       <c r="M15" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106304</v>
       </c>
       <c r="N15" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921422</v>
       </c>
       <c r="O15" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.146616470411</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q15" t="n">
         <v>2587.498588679581</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>657.851056919606</v>
+        <v>561.6604390533937</v>
       </c>
       <c r="C16" t="n">
-        <v>488.9148739916991</v>
+        <v>392.7242561254868</v>
       </c>
       <c r="D16" t="n">
-        <v>488.9148739916991</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="E16" t="n">
-        <v>341.001780409306</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F16" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G16" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5442,10 +5442,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M16" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N16" t="n">
         <v>1318.687152545534</v>
@@ -5457,31 +5457,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q16" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S16" t="n">
-        <v>1821.238811302083</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T16" t="n">
-        <v>1719.047570518444</v>
+        <v>1576.515866584454</v>
       </c>
       <c r="U16" t="n">
-        <v>1429.942266060471</v>
+        <v>1287.410562126481</v>
       </c>
       <c r="V16" t="n">
-        <v>1175.257777854584</v>
+        <v>1032.726073920594</v>
       </c>
       <c r="W16" t="n">
-        <v>885.8406078176233</v>
+        <v>743.3089038836334</v>
       </c>
       <c r="X16" t="n">
-        <v>657.851056919606</v>
+        <v>743.3089038836334</v>
       </c>
       <c r="Y16" t="n">
-        <v>657.851056919606</v>
+        <v>743.3089038836334</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C17" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
         <v>1652.105554591511</v>
@@ -5503,13 +5503,13 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
@@ -5518,13 +5518,13 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K17" t="n">
-        <v>1086.017693327009</v>
+        <v>1086.01769332701</v>
       </c>
       <c r="L17" t="n">
-        <v>1611.438070502394</v>
+        <v>1521.642956557057</v>
       </c>
       <c r="M17" t="n">
-        <v>2127.824549292078</v>
+        <v>2038.029435346741</v>
       </c>
       <c r="N17" t="n">
         <v>2657.180509552854</v>
@@ -5545,7 +5545,7 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T17" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902181</v>
       </c>
       <c r="U17" t="n">
         <v>4213.370243053371</v>
@@ -5594,25 +5594,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M18" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O18" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>582.5180172137391</v>
+        <v>255.8114199243957</v>
       </c>
       <c r="C19" t="n">
-        <v>413.5818342858322</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D19" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E19" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F19" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G19" t="n">
         <v>95.71766921524075</v>
@@ -5679,10 +5679,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M19" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N19" t="n">
         <v>1318.687152545534</v>
@@ -5694,10 +5694,10 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q19" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S19" t="n">
         <v>1720.61395783393</v>
@@ -5706,19 +5706,19 @@
         <v>1498.656398353473</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.656398353473</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V19" t="n">
-        <v>1243.971910147586</v>
+        <v>954.8666056896133</v>
       </c>
       <c r="W19" t="n">
-        <v>1212.948612085526</v>
+        <v>665.4494356526527</v>
       </c>
       <c r="X19" t="n">
-        <v>984.959061187509</v>
+        <v>437.4598847546354</v>
       </c>
       <c r="Y19" t="n">
-        <v>764.1664820439788</v>
+        <v>437.4598847546354</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E20" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924155</v>
       </c>
       <c r="I20" t="n">
         <v>95.71766921524075</v>
@@ -5755,13 +5755,13 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K20" t="n">
-        <v>1086.017693327009</v>
+        <v>1086.01769332701</v>
       </c>
       <c r="L20" t="n">
-        <v>1543.411851794608</v>
+        <v>1555.456794784647</v>
       </c>
       <c r="M20" t="n">
-        <v>2504.816728742196</v>
+        <v>2071.843273574331</v>
       </c>
       <c r="N20" t="n">
         <v>3034.172689002972</v>
@@ -5788,13 +5788,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y20" t="n">
         <v>2765.933610202796</v>
@@ -5834,22 +5834,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K21" t="n">
-        <v>414.2869325418659</v>
+        <v>414.286932541866</v>
       </c>
       <c r="L21" t="n">
-        <v>769.6414721740672</v>
+        <v>769.6414721740674</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.680327106303</v>
+        <v>1203.680327106304</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O21" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q21" t="n">
         <v>2587.498588679581</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>877.3210582940426</v>
+        <v>665.4494356526527</v>
       </c>
       <c r="C22" t="n">
-        <v>708.3848753661357</v>
+        <v>496.5132527247458</v>
       </c>
       <c r="D22" t="n">
-        <v>558.2682359537999</v>
+        <v>496.5132527247458</v>
       </c>
       <c r="E22" t="n">
-        <v>410.3551423714068</v>
+        <v>496.5132527247458</v>
       </c>
       <c r="F22" t="n">
-        <v>263.4651948734965</v>
+        <v>349.6233052268354</v>
       </c>
       <c r="G22" t="n">
-        <v>95.71766921524075</v>
+        <v>181.8757795685797</v>
       </c>
       <c r="H22" t="n">
         <v>95.71766921524075</v>
@@ -5916,10 +5916,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M22" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N22" t="n">
         <v>1318.687152545534</v>
@@ -5931,10 +5931,10 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q22" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S22" t="n">
         <v>1720.61395783393</v>
@@ -5943,19 +5943,19 @@
         <v>1498.656398353473</v>
       </c>
       <c r="U22" t="n">
-        <v>1286.9590740223</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V22" t="n">
-        <v>1286.9590740223</v>
+        <v>954.8666056896133</v>
       </c>
       <c r="W22" t="n">
-        <v>1286.9590740223</v>
+        <v>665.4494356526527</v>
       </c>
       <c r="X22" t="n">
-        <v>1058.969523124282</v>
+        <v>665.4494356526527</v>
       </c>
       <c r="Y22" t="n">
-        <v>1058.969523124282</v>
+        <v>665.4494356526527</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935956</v>
       </c>
       <c r="K23" t="n">
-        <v>765.1137348815562</v>
+        <v>597.7080858612034</v>
       </c>
       <c r="L23" t="n">
-        <v>1200.738998111603</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M23" t="n">
-        <v>2162.143875059191</v>
+        <v>2408.222828443785</v>
       </c>
       <c r="N23" t="n">
-        <v>2691.499835319968</v>
+        <v>3370.552243872426</v>
       </c>
       <c r="O23" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P23" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q23" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6068,25 +6068,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M24" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O24" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q24" t="n">
         <v>2587.498588679581</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>730.4311107961322</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="C25" t="n">
-        <v>561.4949278682253</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="D25" t="n">
-        <v>411.3782884558896</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="E25" t="n">
-        <v>263.4651948734965</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F25" t="n">
         <v>263.4651948734965</v>
@@ -6153,10 +6153,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M25" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N25" t="n">
         <v>1318.687152545534</v>
@@ -6168,31 +6168,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q25" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R25" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S25" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T25" t="n">
-        <v>1913.078649972671</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U25" t="n">
-        <v>1904.963363910767</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V25" t="n">
-        <v>1650.27887570488</v>
+        <v>954.8666056896133</v>
       </c>
       <c r="W25" t="n">
-        <v>1360.861705667919</v>
+        <v>954.8666056896133</v>
       </c>
       <c r="X25" t="n">
-        <v>1132.872154769902</v>
+        <v>812.7961863451767</v>
       </c>
       <c r="Y25" t="n">
-        <v>912.0795756263719</v>
+        <v>592.0036072016466</v>
       </c>
     </row>
     <row r="26">
@@ -6226,16 +6226,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935955</v>
+        <v>276.3093906935956</v>
       </c>
       <c r="K26" t="n">
-        <v>597.7080858612032</v>
+        <v>918.6120443066565</v>
       </c>
       <c r="L26" t="n">
-        <v>1446.817951496196</v>
+        <v>1767.72190994165</v>
       </c>
       <c r="M26" t="n">
-        <v>2288.68291164154</v>
+        <v>2721.656366809404</v>
       </c>
       <c r="N26" t="n">
         <v>3251.01232707018</v>
@@ -6305,25 +6305,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M27" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O27" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q27" t="n">
         <v>2587.498588679581</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.6538521431477</v>
+        <v>413.5818342858322</v>
       </c>
       <c r="C28" t="n">
-        <v>95.71766921524075</v>
+        <v>413.5818342858322</v>
       </c>
       <c r="D28" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E28" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F28" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G28" t="n">
         <v>95.71766921524075</v>
@@ -6390,10 +6390,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M28" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N28" t="n">
         <v>1318.687152545534</v>
@@ -6405,31 +6405,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q28" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R28" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S28" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163342</v>
       </c>
       <c r="T28" t="n">
-        <v>1691.121090492215</v>
+        <v>1628.774119163342</v>
       </c>
       <c r="U28" t="n">
-        <v>1439.186105257782</v>
+        <v>1588.114087400467</v>
       </c>
       <c r="V28" t="n">
-        <v>1184.501617051895</v>
+        <v>1333.42959919458</v>
       </c>
       <c r="W28" t="n">
-        <v>895.0844470149349</v>
+        <v>1044.012429157619</v>
       </c>
       <c r="X28" t="n">
-        <v>667.0948961169175</v>
+        <v>816.0228782596021</v>
       </c>
       <c r="Y28" t="n">
-        <v>446.3023169733874</v>
+        <v>595.2302991160719</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6466,13 +6466,13 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K29" t="n">
-        <v>1086.017693327009</v>
+        <v>1086.01769332701</v>
       </c>
       <c r="L29" t="n">
-        <v>1543.411851794608</v>
+        <v>1555.456794784647</v>
       </c>
       <c r="M29" t="n">
-        <v>2504.816728742196</v>
+        <v>2071.843273574331</v>
       </c>
       <c r="N29" t="n">
         <v>3034.172689002972</v>
@@ -6496,19 +6496,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V29" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X29" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M30" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O30" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q30" t="n">
         <v>2587.498588679581</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>629.9245768933765</v>
+        <v>449.4410924000636</v>
       </c>
       <c r="C31" t="n">
-        <v>629.9245768933765</v>
+        <v>280.5049094721567</v>
       </c>
       <c r="D31" t="n">
-        <v>537.1352232072251</v>
+        <v>280.5049094721567</v>
       </c>
       <c r="E31" t="n">
-        <v>389.222129624832</v>
+        <v>132.5918158897636</v>
       </c>
       <c r="F31" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
         <v>95.71766921524075</v>
@@ -6627,10 +6627,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L31" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M31" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N31" t="n">
         <v>1318.687152545534</v>
@@ -6642,31 +6642,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q31" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R31" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S31" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="T31" t="n">
-        <v>1691.121090492215</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="U31" t="n">
-        <v>1402.015786034242</v>
+        <v>1623.973345514698</v>
       </c>
       <c r="V31" t="n">
-        <v>1147.331297828355</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W31" t="n">
-        <v>857.9141277913939</v>
+        <v>1079.871687271851</v>
       </c>
       <c r="X31" t="n">
-        <v>629.9245768933765</v>
+        <v>851.8821363738334</v>
       </c>
       <c r="Y31" t="n">
-        <v>629.9245768933765</v>
+        <v>631.0895572303033</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935956</v>
       </c>
       <c r="K32" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612034</v>
       </c>
       <c r="L32" t="n">
-        <v>1611.438070502394</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M32" t="n">
-        <v>2127.824549292078</v>
+        <v>2408.222828443785</v>
       </c>
       <c r="N32" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872426</v>
       </c>
       <c r="O32" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P32" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q32" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6779,25 +6779,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K33" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L33" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M33" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O33" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q33" t="n">
         <v>2587.498588679581</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>613.541315275799</v>
+        <v>227.4835329196069</v>
       </c>
       <c r="C34" t="n">
-        <v>444.6051323478921</v>
+        <v>227.4835329196069</v>
       </c>
       <c r="D34" t="n">
-        <v>294.4884929355563</v>
+        <v>227.4835329196069</v>
       </c>
       <c r="E34" t="n">
-        <v>294.4884929355563</v>
+        <v>227.4835329196069</v>
       </c>
       <c r="F34" t="n">
-        <v>294.4884929355563</v>
+        <v>227.4835329196069</v>
       </c>
       <c r="G34" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
         <v>95.71766921524075</v>
@@ -6864,10 +6864,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M34" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N34" t="n">
         <v>1318.687152545534</v>
@@ -6879,31 +6879,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q34" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R34" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S34" t="n">
-        <v>1720.61395783393</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.656398353473</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.656398353473</v>
+        <v>1402.015786034242</v>
       </c>
       <c r="V34" t="n">
-        <v>1243.971910147586</v>
+        <v>1147.331297828355</v>
       </c>
       <c r="W34" t="n">
-        <v>1243.971910147586</v>
+        <v>857.9141277913941</v>
       </c>
       <c r="X34" t="n">
-        <v>1015.982359249569</v>
+        <v>629.9245768933768</v>
       </c>
       <c r="Y34" t="n">
-        <v>795.1897801060387</v>
+        <v>409.1319977498466</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2379.333770138675</v>
+        <v>2379.33377013867</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.371253198264</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591513</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993269</v>
+        <v>1266.317301993266</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036615</v>
+        <v>855.3313972036592</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155739</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924153</v>
       </c>
       <c r="I35" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524068</v>
       </c>
       <c r="J35" t="n">
         <v>276.3093906935955</v>
@@ -6946,43 +6946,43 @@
         <v>1767.721909941649</v>
       </c>
       <c r="M35" t="n">
-        <v>2288.68291164154</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N35" t="n">
-        <v>3251.01232707018</v>
+        <v>3246.437804159974</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.52506777933</v>
+        <v>4109.950544869124</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.258109903959</v>
+        <v>4495.258109903955</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4733.000021926289</v>
       </c>
       <c r="R35" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762034</v>
       </c>
       <c r="S35" t="n">
-        <v>4673.322552666527</v>
+        <v>4673.322552666524</v>
       </c>
       <c r="T35" t="n">
-        <v>4466.908689902183</v>
+        <v>4466.90868990218</v>
       </c>
       <c r="U35" t="n">
-        <v>4213.370243053373</v>
+        <v>4213.370243053369</v>
       </c>
       <c r="V35" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709798</v>
       </c>
       <c r="W35" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439683</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178604</v>
       </c>
       <c r="Y35" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202792</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>333.7653240437118</v>
       </c>
       <c r="G36" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817662</v>
       </c>
       <c r="H36" t="n">
-        <v>106.3322115589798</v>
+        <v>106.3322115589797</v>
       </c>
       <c r="I36" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524068</v>
       </c>
       <c r="J36" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K36" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L36" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M36" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O36" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q36" t="n">
         <v>2587.498588679581</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>613.541315275799</v>
+        <v>216.6673056111071</v>
       </c>
       <c r="C37" t="n">
-        <v>444.6051323478921</v>
+        <v>216.6673056111071</v>
       </c>
       <c r="D37" t="n">
-        <v>294.4884929355563</v>
+        <v>216.6673056111071</v>
       </c>
       <c r="E37" t="n">
-        <v>146.5753993531632</v>
+        <v>216.6673056111071</v>
       </c>
       <c r="F37" t="n">
-        <v>146.5753993531632</v>
+        <v>95.71766921524068</v>
       </c>
       <c r="G37" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524068</v>
       </c>
       <c r="H37" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524068</v>
       </c>
       <c r="I37" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524068</v>
       </c>
       <c r="J37" t="n">
-        <v>137.7436613720289</v>
+        <v>137.743661372029</v>
       </c>
       <c r="K37" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738842</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150421</v>
       </c>
       <c r="M37" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239507</v>
       </c>
       <c r="N37" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545535</v>
       </c>
       <c r="O37" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961356</v>
       </c>
       <c r="P37" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203281</v>
       </c>
       <c r="Q37" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972673</v>
       </c>
       <c r="R37" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972673</v>
       </c>
       <c r="S37" t="n">
-        <v>1720.61395783393</v>
+        <v>1720.613957833931</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.656398353473</v>
+        <v>1498.656398353475</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.656398353473</v>
+        <v>1209.551093895501</v>
       </c>
       <c r="V37" t="n">
-        <v>1243.971910147586</v>
+        <v>954.8666056896147</v>
       </c>
       <c r="W37" t="n">
-        <v>1243.971910147586</v>
+        <v>665.4494356526543</v>
       </c>
       <c r="X37" t="n">
-        <v>1015.982359249569</v>
+        <v>437.4598847546371</v>
       </c>
       <c r="Y37" t="n">
-        <v>795.1897801060387</v>
+        <v>216.6673056111071</v>
       </c>
     </row>
     <row r="38">
@@ -7156,70 +7156,70 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E38" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I38" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524068</v>
       </c>
       <c r="J38" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K38" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.642956557056</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M38" t="n">
-        <v>2038.02943534674</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N38" t="n">
-        <v>2657.180509552854</v>
+        <v>2937.578788704561</v>
       </c>
       <c r="O38" t="n">
-        <v>3520.693250262004</v>
+        <v>3801.091529413711</v>
       </c>
       <c r="P38" t="n">
-        <v>4220.007013476401</v>
+        <v>4220.007013476397</v>
       </c>
       <c r="Q38" t="n">
-        <v>4667.940766252041</v>
+        <v>4667.940766252037</v>
       </c>
       <c r="R38" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762034</v>
       </c>
       <c r="S38" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666523</v>
       </c>
       <c r="T38" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902179</v>
       </c>
       <c r="U38" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053369</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709798</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439683</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178604</v>
       </c>
       <c r="Y38" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202792</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>333.7653240437118</v>
       </c>
       <c r="G39" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817662</v>
       </c>
       <c r="H39" t="n">
-        <v>106.3322115589798</v>
+        <v>106.3322115589797</v>
       </c>
       <c r="I39" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524068</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M39" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N39" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O39" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.498588679581</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>392.4488215392573</v>
+        <v>562.6835851378764</v>
       </c>
       <c r="C40" t="n">
-        <v>392.4488215392573</v>
+        <v>393.7474022099696</v>
       </c>
       <c r="D40" t="n">
-        <v>242.3321821269216</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="E40" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524068</v>
       </c>
       <c r="F40" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524068</v>
       </c>
       <c r="G40" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524068</v>
       </c>
       <c r="H40" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524068</v>
       </c>
       <c r="I40" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524068</v>
       </c>
       <c r="J40" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M40" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N40" t="n">
         <v>1318.687152545534</v>
@@ -7353,31 +7353,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q40" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R40" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S40" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="T40" t="n">
-        <v>1856.086379111865</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U40" t="n">
-        <v>1566.981074653892</v>
+        <v>1402.015786034242</v>
       </c>
       <c r="V40" t="n">
-        <v>1312.296586448005</v>
+        <v>1147.331297828355</v>
       </c>
       <c r="W40" t="n">
-        <v>1022.879416411045</v>
+        <v>857.9141277913941</v>
       </c>
       <c r="X40" t="n">
-        <v>794.8898655130272</v>
+        <v>857.9141277913941</v>
       </c>
       <c r="Y40" t="n">
-        <v>574.0972863694971</v>
+        <v>744.3320499681162</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036606</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155741</v>
+        <v>440.159320515575</v>
       </c>
       <c r="H41" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924163</v>
       </c>
       <c r="I41" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>330.2173920076461</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K41" t="n">
-        <v>972.5200456207069</v>
+        <v>790.1010928348236</v>
       </c>
       <c r="L41" t="n">
-        <v>1821.6299112557</v>
+        <v>1639.210958469817</v>
       </c>
       <c r="M41" t="n">
-        <v>2338.016390045384</v>
+        <v>2600.615835417405</v>
       </c>
       <c r="N41" t="n">
-        <v>2867.37235030616</v>
+        <v>3562.945250846045</v>
       </c>
       <c r="O41" t="n">
-        <v>3730.88509101531</v>
+        <v>4049.465812105077</v>
       </c>
       <c r="P41" t="n">
         <v>4430.198854229707</v>
@@ -7490,25 +7490,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M42" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O42" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.498588679581</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>410.3551423714068</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C43" t="n">
-        <v>410.3551423714068</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D43" t="n">
-        <v>410.3551423714068</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E43" t="n">
-        <v>410.3551423714068</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F43" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G43" t="n">
         <v>95.71766921524075</v>
@@ -7575,10 +7575,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M43" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N43" t="n">
         <v>1318.687152545534</v>
@@ -7590,10 +7590,10 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q43" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S43" t="n">
         <v>1720.61395783393</v>
@@ -7605,16 +7605,16 @@
         <v>1209.5510938955</v>
       </c>
       <c r="V43" t="n">
-        <v>954.866605689613</v>
+        <v>954.8666056896133</v>
       </c>
       <c r="W43" t="n">
-        <v>665.4494356526525</v>
+        <v>665.4494356526527</v>
       </c>
       <c r="X43" t="n">
-        <v>437.4598847546351</v>
+        <v>437.4598847546354</v>
       </c>
       <c r="Y43" t="n">
-        <v>437.4598847546351</v>
+        <v>216.6673056111053</v>
       </c>
     </row>
     <row r="44">
@@ -7630,16 +7630,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F44" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H44" t="n">
         <v>141.5554198924156</v>
@@ -7651,22 +7651,22 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K44" t="n">
-        <v>1086.017693327009</v>
+        <v>1086.01769332701</v>
       </c>
       <c r="L44" t="n">
-        <v>1935.127558962002</v>
+        <v>1935.127558962003</v>
       </c>
       <c r="M44" t="n">
-        <v>2451.514037751686</v>
+        <v>2504.816728742196</v>
       </c>
       <c r="N44" t="n">
-        <v>3185.953071395928</v>
+        <v>3034.172689002972</v>
       </c>
       <c r="O44" t="n">
-        <v>4049.465812105077</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q44" t="n">
         <v>4667.940766252041</v>
@@ -7681,19 +7681,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U44" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V44" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W44" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X44" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y44" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K45" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M45" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N45" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O45" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q45" t="n">
         <v>2587.498588679581</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>562.6835851378764</v>
+        <v>629.9245768933768</v>
       </c>
       <c r="C46" t="n">
-        <v>393.7474022099696</v>
+        <v>460.9883939654699</v>
       </c>
       <c r="D46" t="n">
-        <v>243.6307627976338</v>
+        <v>310.8717545531341</v>
       </c>
       <c r="E46" t="n">
-        <v>95.71766921524075</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F46" t="n">
         <v>95.71766921524075</v>
@@ -7812,10 +7812,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M46" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N46" t="n">
         <v>1318.687152545534</v>
@@ -7827,13 +7827,13 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q46" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S46" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="T46" t="n">
         <v>1691.121090492215</v>
@@ -7845,13 +7845,13 @@
         <v>1147.331297828355</v>
       </c>
       <c r="W46" t="n">
-        <v>857.9141277913939</v>
+        <v>857.9141277913941</v>
       </c>
       <c r="X46" t="n">
-        <v>629.9245768933765</v>
+        <v>629.9245768933768</v>
       </c>
       <c r="Y46" t="n">
-        <v>629.9245768933765</v>
+        <v>629.9245768933768</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>90.70213529832017</v>
       </c>
       <c r="O11" t="n">
-        <v>377.9865145817806</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,19 +8932,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>266.1560926705207</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>187.4689097177235</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>74.60209794880242</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>74.60209794880114</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>90.70213529832102</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>90.70213529832017</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>21.98878306823372</v>
+        <v>34.15539214908091</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>74.60209794880222</v>
+        <v>74.60209794880109</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>346.1341956393977</v>
+        <v>260.0527905534063</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,16 +9877,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>328.7661427834946</v>
+        <v>441.9676546243136</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>21.98878306823372</v>
+        <v>34.15539214908091</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>90.70213529832102</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534063</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>4.620730212329931</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.620730212324929</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880129</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>90.70213529832063</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>38.56812316975481</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880129</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>54.45252657984912</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>25.2397555083507</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,19 +11305,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>53.84110201061503</v>
       </c>
       <c r="N44" t="n">
-        <v>207.1546195792579</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.89043899785653</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>46.3299103697673</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.5686555098498</v>
+        <v>77.08087354867109</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>8.754007896564502</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
         <v>145.148367782564</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>255.8099332551517</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>59.85183853275842</v>
       </c>
       <c r="I22" t="n">
         <v>97.68290229956054</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>76.63390032553161</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>278.180118212108</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>85.05994023804496</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>145.148367782564</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>36.79861603130544</v>
+        <v>245.9608199681477</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>56.75401286892242</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>108.9156428151537</v>
       </c>
       <c r="G31" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
         <v>97.68290229956054</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S31" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>114.4353027011248</v>
+        <v>35.6218453343507</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
         <v>97.68290229956054</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>25.68090799102335</v>
       </c>
       <c r="G37" t="n">
-        <v>115.7208975651299</v>
+        <v>166.070050401673</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>145.1483677825639</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956054</v>
+        <v>97.6829022995604</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388249</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
         <v>97.68290229956054</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S40" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>163.3156357334542</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>106.1383963070496</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.9982852225413</v>
+        <v>60.09184015003143</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>113.2633983439922</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>78.85246618498601</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S46" t="n">
         <v>190.5400452173542</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>617665.2524108503</v>
+        <v>617665.2524108504</v>
       </c>
     </row>
     <row r="6">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>617665.2524108503</v>
+        <v>617665.2524108504</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642832</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642833</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>793018.6041273861</v>
+        <v>793018.604127386</v>
       </c>
       <c r="F2" t="n">
-        <v>793018.604127386</v>
+        <v>793018.6041273859</v>
       </c>
       <c r="G2" t="n">
-        <v>793018.6041273859</v>
+        <v>793018.6041273858</v>
       </c>
       <c r="H2" t="n">
         <v>793018.604127386</v>
       </c>
       <c r="I2" t="n">
+        <v>793018.6041273861</v>
+      </c>
+      <c r="J2" t="n">
+        <v>793018.604127386</v>
+      </c>
+      <c r="K2" t="n">
+        <v>793018.6041273859</v>
+      </c>
+      <c r="L2" t="n">
+        <v>793018.604127386</v>
+      </c>
+      <c r="M2" t="n">
+        <v>793018.6041273859</v>
+      </c>
+      <c r="N2" t="n">
         <v>793018.6041273864</v>
       </c>
-      <c r="J2" t="n">
-        <v>793018.6041273859</v>
-      </c>
-      <c r="K2" t="n">
-        <v>793018.6041273862</v>
-      </c>
-      <c r="L2" t="n">
-        <v>793018.6041273861</v>
-      </c>
-      <c r="M2" t="n">
-        <v>793018.6041273861</v>
-      </c>
-      <c r="N2" t="n">
-        <v>793018.6041273861</v>
-      </c>
       <c r="O2" t="n">
-        <v>793018.6041273862</v>
+        <v>793018.604127386</v>
       </c>
       <c r="P2" t="n">
         <v>793018.604127386</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518283</v>
+        <v>708251.0967518287</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130130.2399694094</v>
+        <v>130130.2399694093</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924298</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="F4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="G4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="H4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="I4" t="n">
+        <v>23693.12563581158</v>
+      </c>
+      <c r="J4" t="n">
         <v>23693.12563581159</v>
       </c>
-      <c r="J4" t="n">
-        <v>23693.1256358116</v>
-      </c>
       <c r="K4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="L4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="M4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581174</v>
       </c>
       <c r="N4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.1256358117</v>
       </c>
       <c r="O4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581154</v>
       </c>
       <c r="P4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581158</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="K5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="L5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206916</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206916</v>
       </c>
       <c r="O5" t="n">
         <v>95967.7133920692</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43991.78380610058</v>
+        <v>-43991.78380610031</v>
       </c>
       <c r="C6" t="n">
-        <v>545976.0954084442</v>
+        <v>545976.0954084439</v>
       </c>
       <c r="D6" t="n">
-        <v>545976.0954084442</v>
+        <v>545976.0954084439</v>
       </c>
       <c r="E6" t="n">
-        <v>-35593.91079574544</v>
+        <v>-34963.38956666571</v>
       </c>
       <c r="F6" t="n">
-        <v>672657.1859560828</v>
+        <v>673287.7071851628</v>
       </c>
       <c r="G6" t="n">
-        <v>672657.1859560827</v>
+        <v>673287.7071851629</v>
       </c>
       <c r="H6" t="n">
-        <v>672657.1859560828</v>
+        <v>673287.7071851629</v>
       </c>
       <c r="I6" t="n">
-        <v>672657.1859560831</v>
+        <v>673287.707185163</v>
       </c>
       <c r="J6" t="n">
-        <v>496233.9667634898</v>
+        <v>496864.48799257</v>
       </c>
       <c r="K6" t="n">
-        <v>672657.185956083</v>
+        <v>673287.7071851628</v>
       </c>
       <c r="L6" t="n">
-        <v>672657.1859560829</v>
+        <v>673287.7071851629</v>
       </c>
       <c r="M6" t="n">
-        <v>542526.9459866735</v>
+        <v>543157.4672157534</v>
       </c>
       <c r="N6" t="n">
-        <v>672657.1859560829</v>
+        <v>673287.7071851634</v>
       </c>
       <c r="O6" t="n">
-        <v>672657.185956083</v>
+        <v>673287.7071851629</v>
       </c>
       <c r="P6" t="n">
-        <v>672657.1859560828</v>
+        <v>673287.7071851629</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26822,10 +26822,10 @@
         <v>1196.470865190509</v>
       </c>
       <c r="M4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.470865190508</v>
       </c>
       <c r="N4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.470865190508</v>
       </c>
       <c r="O4" t="n">
         <v>1196.470865190509</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731072</v>
+        <v>687.4987572731076</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.183592435953</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>339.7905565133891</v>
+        <v>339.7905565133896</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>178.567976896478</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>388.010651366337</v>
       </c>
       <c r="H5" t="n">
-        <v>19.92444295008164</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>366.7855376854477</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>141.2012504944193</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28019,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>123.4436280914703</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>108.5731239040509</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29985,10 +29985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2.700552425361318e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29997,16 +29997,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>3.467448550509289e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-6.193604276308553e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H11" t="n">
         <v>43.85694049883998</v>
@@ -31761,25 +31761,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J11" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q11" t="n">
         <v>462.4490353515545</v>
@@ -31788,13 +31788,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T11" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H12" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J12" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K12" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L12" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R12" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U12" t="n">
         <v>0.150741852097669</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H13" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J13" t="n">
         <v>135.8096772447416</v>
@@ -31925,16 +31925,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M13" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N13" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O13" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P13" t="n">
         <v>232.3276258279596</v>
@@ -31943,16 +31943,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H14" t="n">
         <v>43.85694049883998</v>
@@ -31998,25 +31998,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J14" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q14" t="n">
         <v>462.4490353515545</v>
@@ -32025,13 +32025,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T14" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H15" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J15" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K15" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L15" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R15" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U15" t="n">
         <v>0.150741852097669</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H16" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J16" t="n">
         <v>135.8096772447416</v>
@@ -32162,16 +32162,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M16" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N16" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O16" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P16" t="n">
         <v>232.3276258279596</v>
@@ -32180,16 +32180,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H17" t="n">
         <v>43.85694049883998</v>
@@ -32235,25 +32235,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J17" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q17" t="n">
         <v>462.4490353515545</v>
@@ -32262,13 +32262,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T17" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H18" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J18" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K18" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L18" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R18" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U18" t="n">
         <v>0.150741852097669</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H19" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J19" t="n">
         <v>135.8096772447416</v>
@@ -32399,16 +32399,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M19" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N19" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O19" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P19" t="n">
         <v>232.3276258279596</v>
@@ -32417,16 +32417,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H20" t="n">
         <v>43.85694049883998</v>
@@ -32472,25 +32472,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J20" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P20" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q20" t="n">
         <v>462.4490353515545</v>
@@ -32499,13 +32499,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S20" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T20" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H21" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I21" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J21" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K21" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L21" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q21" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R21" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S21" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T21" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U21" t="n">
         <v>0.150741852097669</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H22" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J22" t="n">
         <v>135.8096772447416</v>
@@ -32636,16 +32636,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M22" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N22" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O22" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P22" t="n">
         <v>232.3276258279596</v>
@@ -32654,16 +32654,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R22" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S22" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H23" t="n">
         <v>43.85694049883998</v>
@@ -32709,25 +32709,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J23" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P23" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q23" t="n">
         <v>462.4490353515545</v>
@@ -32736,13 +32736,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S23" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T23" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H24" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I24" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J24" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K24" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L24" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R24" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S24" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T24" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U24" t="n">
         <v>0.150741852097669</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H25" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J25" t="n">
         <v>135.8096772447416</v>
@@ -32873,16 +32873,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M25" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N25" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O25" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P25" t="n">
         <v>232.3276258279596</v>
@@ -32891,16 +32891,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R25" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S25" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H26" t="n">
         <v>43.85694049883998</v>
@@ -32946,25 +32946,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J26" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P26" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q26" t="n">
         <v>462.4490353515545</v>
@@ -32973,13 +32973,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S26" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T26" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H27" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I27" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J27" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K27" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L27" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R27" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S27" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T27" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U27" t="n">
         <v>0.150741852097669</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H28" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J28" t="n">
         <v>135.8096772447416</v>
@@ -33110,16 +33110,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M28" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N28" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O28" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P28" t="n">
         <v>232.3276258279596</v>
@@ -33128,16 +33128,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R28" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S28" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H29" t="n">
         <v>43.85694049883998</v>
@@ -33183,25 +33183,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J29" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P29" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q29" t="n">
         <v>462.4490353515545</v>
@@ -33210,13 +33210,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S29" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T29" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H30" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I30" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J30" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K30" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L30" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R30" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S30" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T30" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U30" t="n">
         <v>0.150741852097669</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H31" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J31" t="n">
         <v>135.8096772447416</v>
@@ -33347,16 +33347,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M31" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N31" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O31" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P31" t="n">
         <v>232.3276258279596</v>
@@ -33365,16 +33365,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R31" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S31" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H32" t="n">
         <v>43.85694049883998</v>
@@ -33420,25 +33420,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J32" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P32" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q32" t="n">
         <v>462.4490353515545</v>
@@ -33447,13 +33447,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S32" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T32" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H33" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I33" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J33" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K33" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L33" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R33" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S33" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T33" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U33" t="n">
         <v>0.150741852097669</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H34" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J34" t="n">
         <v>135.8096772447416</v>
@@ -33584,16 +33584,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M34" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N34" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O34" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P34" t="n">
         <v>232.3276258279596</v>
@@ -33602,16 +33602,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R34" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S34" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H35" t="n">
         <v>43.85694049883998</v>
@@ -33657,25 +33657,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J35" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P35" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q35" t="n">
         <v>462.4490353515545</v>
@@ -33684,13 +33684,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S35" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T35" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H36" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I36" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J36" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K36" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L36" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R36" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S36" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T36" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U36" t="n">
         <v>0.150741852097669</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H37" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J37" t="n">
         <v>135.8096772447416</v>
@@ -33821,16 +33821,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M37" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N37" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O37" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P37" t="n">
         <v>232.3276258279596</v>
@@ -33839,16 +33839,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R37" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S37" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H38" t="n">
         <v>43.85694049883998</v>
@@ -33894,25 +33894,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J38" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P38" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q38" t="n">
         <v>462.4490353515545</v>
@@ -33921,13 +33921,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S38" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T38" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H39" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I39" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J39" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K39" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L39" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R39" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S39" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T39" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U39" t="n">
         <v>0.150741852097669</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H40" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J40" t="n">
         <v>135.8096772447416</v>
@@ -34058,16 +34058,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M40" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N40" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O40" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P40" t="n">
         <v>232.3276258279596</v>
@@ -34076,16 +34076,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R40" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S40" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H41" t="n">
         <v>43.85694049883998</v>
@@ -34131,25 +34131,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J41" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P41" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q41" t="n">
         <v>462.4490353515545</v>
@@ -34158,13 +34158,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S41" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T41" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H42" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I42" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J42" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K42" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L42" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R42" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S42" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T42" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U42" t="n">
         <v>0.150741852097669</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H43" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J43" t="n">
         <v>135.8096772447416</v>
@@ -34295,16 +34295,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M43" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N43" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O43" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P43" t="n">
         <v>232.3276258279596</v>
@@ -34313,16 +34313,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R43" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S43" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H44" t="n">
         <v>43.85694049883998</v>
@@ -34368,25 +34368,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J44" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P44" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q44" t="n">
         <v>462.4490353515545</v>
@@ -34395,13 +34395,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S44" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T44" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H45" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I45" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J45" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L45" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R45" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S45" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T45" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U45" t="n">
         <v>0.150741852097669</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H46" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J46" t="n">
         <v>135.8096772447416</v>
@@ -34532,16 +34532,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M46" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N46" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O46" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P46" t="n">
         <v>232.3276258279596</v>
@@ -34550,16 +34550,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R46" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S46" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532403</v>
       </c>
       <c r="K11" t="n">
-        <v>324.6451466339471</v>
+        <v>648.790559205112</v>
       </c>
       <c r="L11" t="n">
-        <v>857.6867329646393</v>
+        <v>440.025518414189</v>
       </c>
       <c r="M11" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279637</v>
       </c>
       <c r="N11" t="n">
-        <v>534.7029901624003</v>
+        <v>625.4051254607205</v>
       </c>
       <c r="O11" t="n">
-        <v>869.4214249444393</v>
+        <v>872.2350916254042</v>
       </c>
       <c r="P11" t="n">
         <v>706.3775386004011</v>
@@ -35433,7 +35433,7 @@
         <v>452.4583361370097</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585827</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L13" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N13" t="n">
         <v>338.0866917389736</v>
@@ -35588,7 +35588,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532403</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051119</v>
+        <v>648.790559205112</v>
       </c>
       <c r="L14" t="n">
-        <v>857.6867329646393</v>
+        <v>440.025518414189</v>
       </c>
       <c r="M14" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279637</v>
       </c>
       <c r="N14" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O14" t="n">
-        <v>757.5910030331794</v>
+        <v>872.2350916254042</v>
       </c>
       <c r="P14" t="n">
-        <v>706.3775386004011</v>
+        <v>572.047740146642</v>
       </c>
       <c r="Q14" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R14" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585827</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>164.2398203511949</v>
+        <v>89.63772240239251</v>
       </c>
       <c r="K15" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275572</v>
+        <v>378.1609409763584</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L16" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N16" t="n">
         <v>338.0866917389736</v>
@@ -35825,7 +35825,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532403</v>
       </c>
       <c r="K17" t="n">
-        <v>648.7905592051119</v>
+        <v>648.790559205112</v>
       </c>
       <c r="L17" t="n">
-        <v>530.7276537125099</v>
+        <v>440.025518414189</v>
       </c>
       <c r="M17" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279637</v>
       </c>
       <c r="N17" t="n">
-        <v>534.7029901624003</v>
+        <v>625.4051254607205</v>
       </c>
       <c r="O17" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254042</v>
       </c>
       <c r="P17" t="n">
         <v>706.3775386004011</v>
@@ -35907,7 +35907,7 @@
         <v>452.4583361370097</v>
       </c>
       <c r="R17" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585827</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N19" t="n">
         <v>338.0866917389736</v>
@@ -36062,7 +36062,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532403</v>
       </c>
       <c r="K20" t="n">
-        <v>648.7905592051119</v>
+        <v>648.790559205112</v>
       </c>
       <c r="L20" t="n">
-        <v>462.0143014824226</v>
+        <v>474.1809105632699</v>
       </c>
       <c r="M20" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279637</v>
       </c>
       <c r="N20" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O20" t="n">
-        <v>491.4349103626587</v>
+        <v>491.4349103626588</v>
       </c>
       <c r="P20" t="n">
         <v>706.3775386004011</v>
@@ -36144,7 +36144,7 @@
         <v>452.4583361370097</v>
       </c>
       <c r="R20" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585827</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239248</v>
+        <v>89.63772240239251</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N21" t="n">
-        <v>539.1831250347803</v>
+        <v>539.1831250347794</v>
       </c>
       <c r="O21" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K22" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L22" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M22" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N22" t="n">
         <v>338.0866917389736</v>
@@ -36299,7 +36299,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811665</v>
       </c>
       <c r="K23" t="n">
-        <v>324.6451466339471</v>
+        <v>324.6451466339473</v>
       </c>
       <c r="L23" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646394</v>
       </c>
       <c r="M23" t="n">
-        <v>971.116037320796</v>
+        <v>971.1160373207962</v>
       </c>
       <c r="N23" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O23" t="n">
-        <v>837.5691060020564</v>
+        <v>751.4877009160651</v>
       </c>
       <c r="P23" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289185</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R23" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560021</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O24" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P24" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K25" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L25" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M25" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N25" t="n">
         <v>338.0866917389736</v>
@@ -36536,7 +36536,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811664</v>
+        <v>182.4158802811665</v>
       </c>
       <c r="K26" t="n">
-        <v>324.6451466339471</v>
+        <v>648.790559205112</v>
       </c>
       <c r="L26" t="n">
-        <v>857.6867329646393</v>
+        <v>857.6867329646394</v>
       </c>
       <c r="M26" t="n">
-        <v>850.3686466114581</v>
+        <v>963.5701584522773</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O26" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254042</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289184</v>
+        <v>384.5788304289185</v>
       </c>
       <c r="Q26" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R26" t="n">
-        <v>53.41761498560015</v>
+        <v>53.41761498560021</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M27" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O27" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P27" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K28" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L28" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M28" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N28" t="n">
         <v>338.0866917389736</v>
@@ -36773,7 +36773,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532403</v>
       </c>
       <c r="K29" t="n">
-        <v>648.7905592051119</v>
+        <v>648.790559205112</v>
       </c>
       <c r="L29" t="n">
-        <v>462.0143014824226</v>
+        <v>474.1809105632699</v>
       </c>
       <c r="M29" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279637</v>
       </c>
       <c r="N29" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O29" t="n">
-        <v>491.4349103626587</v>
+        <v>491.4349103626588</v>
       </c>
       <c r="P29" t="n">
         <v>706.3775386004011</v>
@@ -36855,7 +36855,7 @@
         <v>452.4583361370097</v>
       </c>
       <c r="R29" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585827</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M30" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O30" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K31" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L31" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M31" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N31" t="n">
         <v>338.0866917389736</v>
@@ -37010,7 +37010,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811665</v>
       </c>
       <c r="K32" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339473</v>
       </c>
       <c r="L32" t="n">
-        <v>530.7276537125099</v>
+        <v>857.6867329646394</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207962</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O32" t="n">
-        <v>872.235091625404</v>
+        <v>751.4877009160651</v>
       </c>
       <c r="P32" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289185</v>
       </c>
       <c r="Q32" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R32" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560021</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K33" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M33" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O33" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P33" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K34" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L34" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M34" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N34" t="n">
         <v>338.0866917389736</v>
@@ -37247,7 +37247,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811664</v>
+        <v>182.4158802811665</v>
       </c>
       <c r="K35" t="n">
-        <v>648.7905592051119</v>
+        <v>648.790559205112</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646393</v>
+        <v>857.6867329646394</v>
       </c>
       <c r="M35" t="n">
-        <v>526.2232340402934</v>
+        <v>521.6025038279637</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743844</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O35" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254042</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289184</v>
+        <v>389.1995606412434</v>
       </c>
       <c r="Q35" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R35" t="n">
-        <v>53.41761498560015</v>
+        <v>53.41761498560021</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511938</v>
       </c>
       <c r="K36" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M36" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O36" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806896</v>
       </c>
       <c r="K37" t="n">
-        <v>200.9075269715708</v>
+        <v>200.907526971571</v>
       </c>
       <c r="L37" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627858</v>
       </c>
       <c r="M37" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332409</v>
       </c>
       <c r="N37" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389738</v>
       </c>
       <c r="O37" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604258</v>
       </c>
       <c r="P37" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928532</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332505</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811665</v>
       </c>
       <c r="K38" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339473</v>
       </c>
       <c r="L38" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646394</v>
       </c>
       <c r="M38" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207962</v>
       </c>
       <c r="N38" t="n">
-        <v>625.4051254607209</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O38" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254042</v>
       </c>
       <c r="P38" t="n">
-        <v>706.3775386004011</v>
+        <v>423.1469535986733</v>
       </c>
       <c r="Q38" t="n">
         <v>452.4583361370097</v>
       </c>
       <c r="R38" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585827</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511938</v>
       </c>
       <c r="K39" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O39" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P39" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K40" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L40" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M40" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N40" t="n">
         <v>338.0866917389736</v>
@@ -37721,7 +37721,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>236.8684068610156</v>
+        <v>351.5124954532403</v>
       </c>
       <c r="K41" t="n">
-        <v>648.7905592051119</v>
+        <v>349.884902142298</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646393</v>
+        <v>857.6867329646394</v>
       </c>
       <c r="M41" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207962</v>
       </c>
       <c r="N41" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O41" t="n">
-        <v>872.235091625404</v>
+        <v>491.4349103626588</v>
       </c>
       <c r="P41" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289185</v>
       </c>
       <c r="Q41" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R41" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585827</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M42" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O42" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P42" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K43" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L43" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M43" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N43" t="n">
         <v>338.0866917389736</v>
@@ -37958,7 +37958,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532403</v>
       </c>
       <c r="K44" t="n">
-        <v>648.7905592051119</v>
+        <v>648.790559205112</v>
       </c>
       <c r="L44" t="n">
-        <v>857.6867329646393</v>
+        <v>857.6867329646394</v>
       </c>
       <c r="M44" t="n">
-        <v>521.6025038279635</v>
+        <v>575.4436058385787</v>
       </c>
       <c r="N44" t="n">
-        <v>741.8576097416582</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O44" t="n">
-        <v>872.235091625404</v>
+        <v>491.4349103626588</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R44" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585827</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M45" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O45" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K46" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L46" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M46" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N46" t="n">
         <v>338.0866917389736</v>
@@ -38195,7 +38195,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
